--- a/Files/Teams.xlsx
+++ b/Files/Teams.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19229"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6188113-A563-489E-B15B-1DF45B26F67F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,15 +34,6 @@
     <t>Team 1</t>
   </si>
   <si>
-    <t>admin@cand3.onmicrosoft.com</t>
-  </si>
-  <si>
-    <t>katiej@cand3.onmicrosoft.com</t>
-  </si>
-  <si>
-    <t>katiej@cand3.onmicrosoft.com;rong@cand3.onmicrosoft.com</t>
-  </si>
-  <si>
     <t>Team 2</t>
   </si>
   <si>
@@ -55,12 +47,21 @@
   </si>
   <si>
     <t>Team 3</t>
+  </si>
+  <si>
+    <t>admin@M365x651745.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>AarifS@M365x651745.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>AarifS@M365x651745.onmicrosoft.com;AchimM@M365x651745.onmicrosoft.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -382,26 +383,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.46484375" customWidth="1"/>
+    <col min="4" max="4" width="67.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -410,52 +411,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D2" r:id="rId3"/>
-    <hyperlink ref="C3" r:id="rId4"/>
-    <hyperlink ref="C4" r:id="rId5"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>

--- a/Files/Teams.xlsx
+++ b/Files/Teams.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6188113-A563-489E-B15B-1DF45B26F67F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0895E818-FFD8-4EF8-9131-FB124F1CD40C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -49,13 +49,7 @@
     <t>Team 3</t>
   </si>
   <si>
-    <t>admin@M365x651745.onmicrosoft.com</t>
-  </si>
-  <si>
-    <t>AarifS@M365x651745.onmicrosoft.com</t>
-  </si>
-  <si>
-    <t>AarifS@M365x651745.onmicrosoft.com;AchimM@M365x651745.onmicrosoft.com</t>
+    <t>grjoh@jebosoft.onmicrosoft.com;tomjebo@jebosoft.onmicrosoft.com</t>
   </si>
 </sst>
 </file>
@@ -387,17 +381,17 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.46484375" customWidth="1"/>
-    <col min="4" max="4" width="67.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" customWidth="1"/>
+    <col min="4" max="4" width="67.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,7 +405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -422,10 +416,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -433,13 +427,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -449,6 +443,7 @@
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D4" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
